--- a/excel/adjacency.xlsx
+++ b/excel/adjacency.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,21 +427,6 @@
       <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="n">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -451,76 +436,61 @@
         <v>0.04742587317756679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3379884746570367</v>
+        <v>0.1682949628977687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.1449591839028023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3243474516822782</v>
+        <v>0.2442300188076354</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2213189983794391</v>
+        <v>0.2295794540109554</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1423839329286308</v>
+        <v>2.174737690477415</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5386289919917757</v>
+        <v>0.3674774841125602</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2761798954925578</v>
+        <v>1.237371482634539</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1694287622995757</v>
+        <v>0.09020887076098905</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.9943882934968851</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1320226452451274</v>
+        <v>1.710517150594091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3280072119113778</v>
+        <v>0.3838880055939223</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1675383506762572</v>
+        <v>0.1398885371832416</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07892094610655448</v>
+        <v>0.1972877522214549</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7904719787988604</v>
+        <v>0.2525540456578603</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.909261405124147</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1989304341559765</v>
+        <v>0.8602743931947664</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7608746124935368</v>
+        <v>0.1792155955163347</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04742587317756679</v>
+        <v>0.315392551150192</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05473955058999228</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07732583088261741</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.07821546856928853</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.3280790859020297</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.2191800523225246</v>
+        <v>0.8040941104099427</v>
       </c>
     </row>
     <row r="3">
@@ -528,79 +498,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.1682949628977687</v>
       </c>
       <c r="C3" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.1381036703467809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1000919426843574</v>
+        <v>0.3075960850835841</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.1213517189903442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7577339132018822</v>
+        <v>0.6680234049905723</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6200017861204975</v>
+        <v>0.17052899619275</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4666634999490264</v>
+        <v>1.558410492332793</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5722853099812919</v>
+        <v>0.1682949628977687</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7780527984598075</v>
+        <v>1.855145059995639</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7694392880983165</v>
+        <v>2.124468066138333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05815996009013319</v>
+        <v>1.36226100500955</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.1777466307132169</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7721686236895373</v>
+        <v>0.06060171605016904</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8166359048326247</v>
+        <v>0.6647323293113657</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7780527984598075</v>
+        <v>2.39321231305838</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0790716080199894</v>
+        <v>1.53089793574484</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.5013868803839658</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.1233678819908382</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6200017861204975</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.9848897481527829</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.07825174697722302</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.07881867741549282</v>
+        <v>0.3145267285508669</v>
       </c>
     </row>
     <row r="4">
@@ -608,79 +563,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08007418535359795</v>
+        <v>0.1449591839028023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4714460462050937</v>
+        <v>0.1381036703467809</v>
       </c>
       <c r="D4" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4524187514011261</v>
+        <v>0.416841344818164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3379884746570367</v>
+        <v>0.05759358309594488</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2252409804011752</v>
+        <v>1.201614248855418</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5386289919917757</v>
+        <v>0.3444554718059527</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4042658082134255</v>
+        <v>2.111892695988694</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2680239247755768</v>
+        <v>0.0794085904017427</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.8753348981365333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2147701579385088</v>
+        <v>3.482824282476741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4575235985170475</v>
+        <v>1.173369898591384</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2650334316866448</v>
+        <v>0.137818193802908</v>
       </c>
       <c r="O4" t="n">
-        <v>0.133250692995291</v>
+        <v>0.1090079852995583</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904719787988604</v>
+        <v>0.4315208236237521</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4666634999490264</v>
+        <v>1.553589171008595</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2774797772257271</v>
+        <v>2.509733419668387</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7608746124935368</v>
+        <v>0.3000558930463673</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08007418535359795</v>
+        <v>0.1962704612407541</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09242265089573577</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1305574889793384</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.1320595596476702</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.457623852553083</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.3057251262171951</v>
+        <v>0.5003920395570103</v>
       </c>
     </row>
     <row r="5">
@@ -688,79 +628,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9631903894915512</v>
+        <v>2.174737690477415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1000919426843574</v>
+        <v>1.558410492332793</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9631903894915512</v>
+        <v>1.201614248855418</v>
       </c>
       <c r="E5" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9848897481527829</v>
+        <v>1.795858104053417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7927560843131768</v>
+        <v>1.865354020389489</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7615385840528978</v>
+        <v>0.2287301986187205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.9806800867361429</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7698290754512285</v>
+        <v>1.237371482634539</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9631903894915512</v>
+        <v>2.321161547196825</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7695109914635786</v>
+        <v>4.695127521811881</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07823585111057843</v>
+        <v>1.094362670554613</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4666634999490264</v>
+        <v>1.52122234808131</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8844807988141309</v>
+        <v>0.9943882934968851</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6341193030310943</v>
+        <v>0.208977251214636</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9631903894915512</v>
+        <v>2.681169288352903</v>
       </c>
       <c r="R5" t="n">
-        <v>0.09788668979439596</v>
+        <v>2.786014014309637</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.1391504746277059</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9631903894915512</v>
+        <v>0.1915865829469539</v>
       </c>
       <c r="U5" t="n">
-        <v>0.7615385840528978</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.4666634999490264</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.07834661750850561</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.05431961672041778</v>
+        <v>2.930730055205051</v>
       </c>
     </row>
     <row r="6">
@@ -768,79 +693,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.169191840164313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08007418535359795</v>
+        <v>0.1169601604188273</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.06013021025834446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1689959558762549</v>
+        <v>0.2469203904845711</v>
       </c>
       <c r="F6" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7577339132018822</v>
+        <v>0.8731151977926455</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6200017861204975</v>
+        <v>0.247723745837838</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06183108869890003</v>
+        <v>1.25100203143841</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5722853099812919</v>
+        <v>0.1355296190148628</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7780527984598075</v>
+        <v>1.493966895201991</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7694392880983165</v>
+        <v>2.234395869256624</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09819769489490546</v>
+        <v>1.369520764336007</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.1438725529839313</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7721686236895373</v>
+        <v>0.07920722372962939</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8166359048326247</v>
+        <v>0.5964656371631972</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7780527984598075</v>
+        <v>2.147434153915716</v>
       </c>
       <c r="R6" t="n">
-        <v>0.133505071653475</v>
+        <v>1.610112233929446</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.3726418447642798</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.3052028634867004</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6200017861204975</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.9848897481527829</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1321208123725363</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.1330780218017996</v>
+        <v>0.7781154758250418</v>
       </c>
     </row>
     <row r="7">
@@ -848,79 +758,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6605023294654191</v>
+        <v>0.4292455697428135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2112111855072456</v>
+        <v>0.1262908815629903</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6605023294654191</v>
+        <v>0.2460775459904742</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1712952422394639</v>
+        <v>0.5855164244948635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1270921807163939</v>
+        <v>0.1794770828250098</v>
       </c>
       <c r="G7" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7646728827757004</v>
+        <v>0.5529591229692569</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1645903872926394</v>
+        <v>0.1378043043185038</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07831045801818996</v>
+        <v>0.4292455697428135</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6605023294654191</v>
+        <v>0.1972877522214549</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7697125484877453</v>
+        <v>1.265992761464542</v>
       </c>
       <c r="M7" t="n">
-        <v>0.169671697378672</v>
+        <v>2.001623847423932</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07905979066250211</v>
+        <v>0.3002559602322963</v>
       </c>
       <c r="O7" t="n">
-        <v>0.769398038625328</v>
+        <v>0.1031860605812164</v>
       </c>
       <c r="P7" t="n">
-        <v>0.750378295632432</v>
+        <v>0.9467710504551395</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6605023294654191</v>
+        <v>0.7648362532909454</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1454371969828369</v>
+        <v>0.1681963131808074</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7779365174293135</v>
+        <v>0.5912361647461069</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6605023294654191</v>
+        <v>0.463163803987331</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7646728827757004</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.7779365174293135</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.7733860081242669</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.1702932574036104</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.7733860081242669</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.1347155526973952</v>
+        <v>0.1621418969302603</v>
       </c>
     </row>
     <row r="8">
@@ -928,79 +823,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1469651450260512</v>
+        <v>2.526302774178762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4732954808644793</v>
+        <v>0.8982491009002392</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09034182118880911</v>
+        <v>1.215682441264475</v>
       </c>
       <c r="E8" t="n">
-        <v>0.651633465106856</v>
+        <v>0.1685659693380203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3761593127936457</v>
+        <v>2.205847461053184</v>
       </c>
       <c r="G8" t="n">
-        <v>0.382598074926894</v>
+        <v>2.792137021496862</v>
       </c>
       <c r="H8" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4273189522675176</v>
+        <v>3.485635126046888</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2703636339691742</v>
+        <v>2.526302774178762</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5265021464978844</v>
+        <v>4.739043155831596</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3290634384424533</v>
+        <v>3.088192351607877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3967105965395032</v>
+        <v>1.271275824521564</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4440970147483102</v>
+        <v>1.526383720322764</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2651511483053017</v>
+        <v>1.488440444906007</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6524872994763442</v>
+        <v>0.3004087677908767</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.05350712886320187</v>
+        <v>3.854231776288322</v>
       </c>
       <c r="R8" t="n">
-        <v>0.393902002561865</v>
+        <v>4.020612535307098</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08851703104396175</v>
+        <v>0.1420797670182313</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1469651450260512</v>
+        <v>0.07697096302769504</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1302620880172402</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.2431249551421522</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.2225211269204521</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.5964102406101244</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.5548946251821435</v>
+        <v>1.17743691261408</v>
       </c>
     </row>
     <row r="9">
@@ -1008,79 +888,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.4292455697428135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06183108869890003</v>
+        <v>0.3075960850835841</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.237172324331123</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1304940398881073</v>
+        <v>0.2015076947618036</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.3544630409575656</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7577339132018822</v>
+        <v>0.09020887076098905</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6200017861204975</v>
+        <v>0.971851269316631</v>
       </c>
       <c r="I9" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5722853099812919</v>
+        <v>0.2442300188076354</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.1122518083632912</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7694392880983165</v>
+        <v>0.9329913509449534</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07582556545861389</v>
+        <v>2.001623847423932</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.3002559602322963</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7721686236895373</v>
+        <v>0.1962704612407541</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8166359048326247</v>
+        <v>0.6595245497142173</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.5327880328769315</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1030889529591463</v>
+        <v>0.1347321609775101</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9848897481527829</v>
+        <v>0.5912361647461069</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7780527984598075</v>
+        <v>0.8140318372713292</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6200017861204975</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.9848897481527829</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.1020200659264023</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.1027591967819065</v>
+        <v>0.2849718935731182</v>
       </c>
     </row>
     <row r="10">
@@ -1088,79 +953,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6078367429162738</v>
+        <v>0.1378043043185038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1233670640622367</v>
+        <v>0.1682949628977687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6078367429162738</v>
+        <v>0.07637830058652412</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1695100499950278</v>
+        <v>0.2534002390661891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07423370671678214</v>
+        <v>0.1306249809509677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07831045801818996</v>
+        <v>1.237371482634539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5183178657987757</v>
+        <v>0.4986368141746587</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0961361625067098</v>
+        <v>1.283831656092369</v>
       </c>
       <c r="J10" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6078367429162738</v>
+        <v>0.5227837650422582</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8818508002464645</v>
+        <v>2.455508472264212</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1027554761566363</v>
+        <v>1.115454835149173</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07823585111057843</v>
+        <v>0.1398885371832416</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5250631126748189</v>
+        <v>0.1122518083632912</v>
       </c>
       <c r="P10" t="n">
-        <v>0.778184384907169</v>
+        <v>0.5891752769348839</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6078367429162738</v>
+        <v>2.121186927632762</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1338406666702731</v>
+        <v>1.769446625868216</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7698290754512285</v>
+        <v>0.3271553661545977</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6078367429162738</v>
+        <v>0.315392551150192</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5183178657987757</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.7698290754512285</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.9824569159738556</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.2163289569792818</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.9824569159738556</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.1836597454951356</v>
+        <v>0.8040941104099427</v>
       </c>
     </row>
     <row r="11">
@@ -1168,79 +1018,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3491337848765806</v>
+        <v>0.2998254400192587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7645019202663085</v>
+        <v>0.3661649870327953</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2774797772257271</v>
+        <v>0.1661788265216245</v>
       </c>
       <c r="E11" t="n">
-        <v>0.733647056741208</v>
+        <v>0.4948546125193659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7354702802303209</v>
+        <v>0.2842051457305046</v>
       </c>
       <c r="G11" t="n">
-        <v>0.581015341625346</v>
+        <v>0.1122518083632912</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2296080564210055</v>
+        <v>0.97376675087445</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7523584714345002</v>
+        <v>0.1164665802088567</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6913751304930623</v>
+        <v>0.1031860605812164</v>
       </c>
       <c r="K11" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6615386591269815</v>
+        <v>0.8904137466178248</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7419251310918201</v>
+        <v>1.398122177863129</v>
       </c>
       <c r="N11" t="n">
-        <v>0.683661070819732</v>
+        <v>0.3043601752647433</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5809902227220453</v>
+        <v>0.2442300188076354</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08033373902400748</v>
+        <v>0.9521510834593747</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1989304341559765</v>
+        <v>0.7691824405593064</v>
       </c>
       <c r="R11" t="n">
-        <v>0.449964156517395</v>
+        <v>0.1605205763536214</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3243474516822782</v>
+        <v>0.6388878816715611</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3491337848765806</v>
+        <v>0.6159167776087048</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4029746886972886</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.5692475055481877</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.5757967275636351</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.7420877041024126</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.1320595596476702</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.4957671147061151</v>
+        <v>0.2156168375268381</v>
       </c>
     </row>
     <row r="12">
@@ -1248,79 +1083,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6910427880553226</v>
+        <v>0.497504731185769</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2147773894490002</v>
+        <v>0.4304334218738449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6910427880553226</v>
+        <v>0.5200363928242889</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1878043312819435</v>
+        <v>1.265992761464542</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1320270905700895</v>
+        <v>0.452705632602476</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1019839024551966</v>
+        <v>0.3394743874192639</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7719376702732781</v>
+        <v>1.078552641921943</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1694242220160822</v>
+        <v>0.3394743874192639</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1300927125083798</v>
+        <v>0.497504731185769</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6910427880553226</v>
+        <v>0.2387633408212372</v>
       </c>
       <c r="L12" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2740716478354611</v>
+        <v>1.769446625868216</v>
       </c>
       <c r="N12" t="n">
-        <v>0.08914448127067169</v>
+        <v>0.2077306593780084</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7697125484877453</v>
+        <v>0.7073536216932187</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7719376702732781</v>
+        <v>0.6347619154597608</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6910427880553226</v>
+        <v>0.07841906405481243</v>
       </c>
       <c r="R12" t="n">
-        <v>0.192894187120214</v>
+        <v>0.1341795042347483</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6728083963310862</v>
+        <v>0.7665835360705346</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6910427880553226</v>
+        <v>0.745560999385308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7719376702732781</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.6728083963310862</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.9134016663003339</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.2014081099304187</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.9134016663003339</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.2206189917152267</v>
+        <v>0.2924339111429854</v>
       </c>
     </row>
     <row r="13">
@@ -1328,79 +1148,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6078367429162738</v>
+        <v>2.412262370807551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05693896766714102</v>
+        <v>8.560129292185001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6078367429162738</v>
+        <v>7.373181793036671</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07823585111057843</v>
+        <v>3.133460804536712</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5602709271276244</v>
+        <v>11.67729428929375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7705631962653254</v>
+        <v>18.28462359816273</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5183178657987757</v>
+        <v>4.714720568086331</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5602709271276244</v>
+        <v>10.40349459621786</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4666634999490264</v>
+        <v>4.588370226416987</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6078367429162738</v>
+        <v>8.360555728915731</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8818508002464645</v>
+        <v>13.98913788504709</v>
       </c>
       <c r="M13" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7698290754512285</v>
+        <v>7.115269192641136</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5250631126748189</v>
+        <v>10.03481410080042</v>
       </c>
       <c r="P13" t="n">
-        <v>0.778184384907169</v>
+        <v>0.909261405124147</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6078367429162738</v>
+        <v>7.436220774176722</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06177296549946858</v>
+        <v>7.232961262215963</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7698290754512285</v>
+        <v>2.299328505372837</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6078367429162738</v>
+        <v>4.04647308261629</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5183178657987757</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.7698290754512285</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.9824569159738556</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.09984469988436831</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.9824569159738556</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.08476651681705973</v>
+        <v>9.952754469609683</v>
       </c>
     </row>
     <row r="14">
@@ -1408,79 +1213,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9631903894915512</v>
+        <v>0.1398885371832416</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2168646466764236</v>
+        <v>0.1777466307132169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9631903894915512</v>
+        <v>0.137818193802908</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1027554761566363</v>
+        <v>0.3002559602322963</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1304940398881073</v>
+        <v>0.1438725529839313</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08056586709585793</v>
+        <v>1.52122234808131</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7615385840528978</v>
+        <v>0.3012747020226918</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1689959558762549</v>
+        <v>1.52122234808131</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07823585111057843</v>
+        <v>0.1398885371832416</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9631903894915512</v>
+        <v>1.542016019000813</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7695109914635786</v>
+        <v>1.067783819214121</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1695100499950278</v>
+        <v>1.132325626218044</v>
       </c>
       <c r="N14" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8844807988141309</v>
+        <v>0.1380021779160507</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6341193030310943</v>
+        <v>0.5579280641075591</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9631903894915512</v>
+        <v>2.008688691591528</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2120866258289135</v>
+        <v>1.519642120270308</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.2635806485522825</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9631903894915512</v>
+        <v>0.2998556598356406</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7615385840528978</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.4666634999490264</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.1697500424969802</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.1176918358435775</v>
+        <v>0.7644827665321319</v>
       </c>
     </row>
     <row r="15">
@@ -1488,79 +1278,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.09026423542998287</v>
+        <v>0.1972877522214549</v>
       </c>
       <c r="C15" t="n">
-        <v>0.323008626868016</v>
+        <v>0.05804519814743058</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8881865784160954</v>
+        <v>0.1131009597832784</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4197982288826265</v>
+        <v>0.2998254400192587</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2115100103306405</v>
+        <v>0.08249038019664477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1436723531006239</v>
+        <v>0.5227837650422582</v>
       </c>
       <c r="H15" t="n">
-        <v>0.750378295632432</v>
+        <v>0.283153820151078</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2639394402490344</v>
+        <v>1.519041152514478</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1130116123857458</v>
+        <v>0.1972877522214549</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8881865784160954</v>
+        <v>2.174737690477415</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1320739789662792</v>
+        <v>3.49124883056822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2187858979145162</v>
+        <v>1.5969426950736</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2168424709952855</v>
+        <v>0.1380021779160507</v>
       </c>
       <c r="O15" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9499031127712226</v>
+        <v>0.5858462018644942</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8881865784160954</v>
+        <v>2.10920137630896</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3786183013565978</v>
+        <v>1.854057626765674</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9847890374037236</v>
+        <v>0.3027543478446957</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09026423542998287</v>
+        <v>0.237172324331123</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0762591158034636</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.1000817076965921</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.07859733350178985</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.3296808393695307</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.7733860081242669</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.3435180181430174</v>
+        <v>0.6046714434167973</v>
       </c>
     </row>
     <row r="16">
@@ -1568,79 +1343,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.59139074263805</v>
+        <v>1.17725739669885</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7874129563164227</v>
+        <v>3.235061366445427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4700174506989425</v>
+        <v>2.849647129597606</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6245390100706607</v>
+        <v>1.519896714160028</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7575112792879488</v>
+        <v>2.902826978789947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8535069623678462</v>
+        <v>5.195509052809215</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3279808381825697</v>
+        <v>1.521996535121222</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7749055855812379</v>
+        <v>5.195509052809215</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6992142478473728</v>
+        <v>2.867346889012277</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08033373902400748</v>
+        <v>5.225032568726267</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6637090331103029</v>
+        <v>7.010316726497774</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7503374067352805</v>
+        <v>0.1764517262055909</v>
       </c>
       <c r="N16" t="n">
-        <v>0.581986943817614</v>
+        <v>2.817227419563527</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7106689703910585</v>
+        <v>2.85114523660074</v>
       </c>
       <c r="P16" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3369642878600264</v>
+        <v>2.412262370807551</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7621852946067492</v>
+        <v>2.954897638575139</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2761104737370284</v>
+        <v>0.9711182996750646</v>
       </c>
       <c r="T16" t="n">
-        <v>0.59139074263805</v>
+        <v>1.519098098964178</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5756242974460611</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.4845889727676859</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.4528032777527959</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.7686544312786519</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.1038508880036095</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.7287725180265224</v>
+        <v>3.846891914153135</v>
       </c>
     </row>
     <row r="17">
@@ -1648,79 +1408,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1302620880172402</v>
+        <v>0.1764517262055909</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5931882464457402</v>
+        <v>0.4848830545392922</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08007418535359795</v>
+        <v>0.4271157322980328</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5692475055481877</v>
+        <v>0.7648362532909454</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4714460462050937</v>
+        <v>0.4350865262940224</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3297025904882318</v>
+        <v>0.2050898918739677</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05473955058999228</v>
+        <v>0.7658929166691734</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5355651811963527</v>
+        <v>0.2050898918739677</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3923272849991093</v>
+        <v>0.429768638205356</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.2062553165947452</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3279873784673299</v>
+        <v>0.1378251371114983</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5756705847816271</v>
+        <v>0.6275757635891125</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3879498696792952</v>
+        <v>0.4222565453312414</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2167679061942642</v>
+        <v>0.4273402741590437</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7904719787988604</v>
+        <v>0.3838880055939223</v>
       </c>
       <c r="Q17" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3491337848765806</v>
+        <v>0.116642975892101</v>
       </c>
       <c r="S17" t="n">
-        <v>0.07732583088261741</v>
+        <v>0.4886822077487216</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1302620880172402</v>
+        <v>0.7644343773946927</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1503501713143066</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.2123866892386971</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.2148302090914728</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5757967275636351</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.3846729715414487</v>
+        <v>0.2998366800006842</v>
       </c>
     </row>
     <row r="18">
@@ -1728,79 +1473,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.1768375340504842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08057790957212514</v>
+        <v>0.3021657092366999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.4953663866429985</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07732583088261741</v>
+        <v>0.5517465131803693</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7928745804788008</v>
+        <v>0.3178008760455137</v>
       </c>
       <c r="G18" t="n">
-        <v>0.646635945472099</v>
+        <v>0.2282286055237918</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5386289919917757</v>
+        <v>0.8261454214050216</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7928745804788008</v>
+        <v>0.1298563818676413</v>
       </c>
       <c r="J18" t="n">
-        <v>0.76945990777393</v>
+        <v>0.3492499938618179</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.1605205763536214</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7694133812358732</v>
+        <v>0.7644057210334932</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07819833350003738</v>
+        <v>0.824614743227683</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7608746124935368</v>
+        <v>0.2999440578865435</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7765703077617592</v>
+        <v>0.4965646204925135</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7904719787988604</v>
+        <v>0.5586853488475653</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.4513264413563344</v>
       </c>
       <c r="R18" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="S18" t="n">
-        <v>0.7608746124935368</v>
+        <v>0.2517007190498836</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.7129244866212531</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5386289919917757</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7608746124935368</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.07821546856928853</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.05225346945329738</v>
+        <v>0.2495767752869648</v>
       </c>
     </row>
     <row r="19">
@@ -1808,79 +1538,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2688600914942203</v>
+        <v>0.8733319803876669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.736844183220421</v>
+        <v>1.872062831649432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1652725910369575</v>
+        <v>1.520208723991658</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3491337848765806</v>
+        <v>0.1391504746277059</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5856189479982636</v>
+        <v>1.887959531751186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4042053901481405</v>
+        <v>2.877376638198047</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07739330869258369</v>
+        <v>0.1420797670182313</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6652661964636896</v>
+        <v>2.877376638198047</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3925155138477869</v>
+        <v>1.657505995564802</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9631903894915512</v>
+        <v>3.109283861109907</v>
       </c>
       <c r="L19" t="n">
-        <v>0.328028987988918</v>
+        <v>3.85770720631792</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5759467771738828</v>
+        <v>0.4394745731969103</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2379393937142914</v>
+        <v>2.347044698623301</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2468894946300066</v>
+        <v>1.533880225271195</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6341193030310943</v>
+        <v>0.1996225468807576</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.09788668979439596</v>
+        <v>2.561148827676751</v>
       </c>
       <c r="R19" t="n">
-        <v>0.7206098318738561</v>
+        <v>1.173279693398062</v>
       </c>
       <c r="S19" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2688600914942203</v>
+        <v>0.1379102240132327</v>
       </c>
       <c r="U19" t="n">
-        <v>0.2125720269000224</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.1302620880172402</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.1433298405418065</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0.5767622032093859</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.3998832727367752</v>
+        <v>2.109634360708601</v>
       </c>
     </row>
     <row r="20">
@@ -1888,79 +1603,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04742587317756679</v>
+        <v>1.597910652154452</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3379884746570367</v>
+        <v>0.6525620185245899</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4666634999490264</v>
+        <v>1.519041152514478</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3243474516822782</v>
+        <v>0.1915865829469539</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2213189983794391</v>
+        <v>1.546285430188235</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1423839329286308</v>
+        <v>3.961659199788286</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5386289919917757</v>
+        <v>0.08016142600742764</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2761798954925578</v>
+        <v>3.961659199788286</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1694287622995757</v>
+        <v>1.597910652154452</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4666634999490264</v>
+        <v>2.997490093872304</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1320226452451274</v>
+        <v>3.616137861040327</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3280072119113778</v>
+        <v>0.8040941104099427</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1675383506762572</v>
+        <v>0.8643836268583792</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07892094610655448</v>
+        <v>2.111892695988694</v>
       </c>
       <c r="P20" t="n">
-        <v>0.7904719787988604</v>
+        <v>0.2998366800006842</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4666634999490264</v>
+        <v>3.846891914153135</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1989304341559765</v>
+        <v>4.707961019956389</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7608746124935368</v>
+        <v>0.1379102240132327</v>
       </c>
       <c r="T20" t="n">
         <v>0.04742587317756679</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05473955058999228</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.07732583088261741</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.07821546856928853</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.3280790859020297</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.2191800523225246</v>
+        <v>0.7254810320111091</v>
       </c>
     </row>
     <row r="21">
@@ -1968,478 +1668,63 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05350712886320187</v>
+        <v>0.2156168375268381</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2696756360193435</v>
+        <v>0.08805458461315883</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5265021464978844</v>
+        <v>0.2049744451835824</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3712895564377838</v>
+        <v>0.5937882458000157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1765869138339765</v>
+        <v>0.208650698912036</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1652271477707984</v>
+        <v>1.062738067596374</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4666634999490264</v>
+        <v>0.248445960033419</v>
       </c>
       <c r="I21" t="n">
-        <v>0.220359552343572</v>
+        <v>1.062738067596374</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1167580681377201</v>
+        <v>0.2156168375268381</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5265021464978844</v>
+        <v>0.8040941104099427</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1324557847306224</v>
+        <v>1.427975693855192</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2260388842969677</v>
+        <v>1.331176021351487</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1917858135967103</v>
+        <v>0.1166370996913333</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0965363362726777</v>
+        <v>0.2849718935731182</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6524872994763442</v>
+        <v>0.7644343773946927</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5265021464978844</v>
+        <v>1.519098098964178</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2244385956868667</v>
+        <v>1.262937861221099</v>
       </c>
       <c r="S21" t="n">
-        <v>0.8709943485365497</v>
+        <v>0.42742800009841</v>
       </c>
       <c r="T21" t="n">
-        <v>0.05350712886320187</v>
+        <v>0.1469879863530869</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04742587317756679</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.08851703104396175</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.08101558101281074</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.3398243115932861</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.3161694269642885</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.09788668979439596</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4198411601018813</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9631903894915512</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1989304341559765</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2749171406702449</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1745583893502896</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.7615385840528978</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.3430640285532521</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.1695100499950278</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.9631903894915512</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1320393940576369</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.3281645815928064</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.1027554761566363</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.0898876260884638</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.6341193030310943</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.9631903894915512</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.4105911055339612</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.4666634999490264</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.09788668979439596</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.07739330869258369</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.04742587317756679</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.05218358575057486</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.3286291973426745</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.5134786801937552</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.2278466207026059</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.06838631879227448</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3282312576799509</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.67291115034922</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.2239285111316919</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.2149298530379278</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.1702932574036104</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2682069988789553</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.1942942106464795</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.67291115034922</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1238087809873867</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.3761457113874772</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.1156679765165654</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.07859733350178985</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.617551091739667</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.67291115034922</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.2868501764161751</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0.5253055581287001</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.06838631879227448</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.08101558101281074</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0.05338552250605397</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.04742587317756679</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.278143848362402</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.4666634999490264</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.3949792431130748</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.07825174697722302</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.07834661750850561</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.7733860081242669</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.7699854884019255</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9824569159738556</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.7352891846667968</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.09984469988436831</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.7709190002427005</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.7733860081242669</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.07821546856928853</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.7709190002427005</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.7696285142929639</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.7971812020052692</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.7709190002427005</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.769398038625328</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.04742587317756679</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.769398038625328</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.09416475448379363</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.4001153638799791</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7142383636340904</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.2868501764161751</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.4872733160522731</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.6620305546629016</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.6263539868243609</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2225211269204521</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.6918473752086008</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.714631661351582</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.67291115034922</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.5398222675160778</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8185012581931888</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.4254372682962214</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.4598580717524652</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.617551091739667</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.1878330135186209</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.6241922297705454</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.1466311354035199</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.4001153638799791</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.4740067786855438</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.3123485536385628</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.2774797772257271</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.6052470703535474</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.04742587317756679</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.8594834333102759</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5260090417420763</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.07881867741549282</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5260090417420763</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0530966495035585</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.7755639991350872</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.6242635382437375</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.9389047206122775</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.7755639991350872</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7292717845439231</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.5260090417420763</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.7903668089170109</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.07411411256619763</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.5224630909825372</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.8058461306955204</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7416900887490484</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.5260090417420763</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.05345701582968893</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.5224630909825372</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.5260090417420763</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.9389047206122775</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.5224630909825372</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.7319439571293722</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.09416475448379363</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.7319439571293722</v>
-      </c>
-      <c r="Z26" t="n">
         <v>0.04742587317756679</v>
       </c>
     </row>
